--- a/lowe/edd/data/MODE$HWS.xlsx
+++ b/lowe/edd/data/MODE$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,14 +1424,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH61"/>
+  <dimension ref="A1:JI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1441,12 +1441,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1474,12 +1474,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2294,11 +2294,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3099,10 +3102,13 @@
         <v>247000</v>
       </c>
       <c r="JH9" s="11">
-        <v>246400</v>
+        <v>244800</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>244900</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3903,10 +3909,13 @@
         <v>226200</v>
       </c>
       <c r="JH10" s="11">
-        <v>226800</v>
+        <v>225200</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>227900</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4709,8 +4718,11 @@
       <c r="JH11" s="11">
         <v>19700</v>
       </c>
+      <c r="JI11" s="11">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5513,8 +5525,11 @@
       <c r="JH12" s="12">
         <v>0.08</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6315,10 +6330,13 @@
         <v>195000</v>
       </c>
       <c r="JH13" s="11">
-        <v>197400</v>
+        <v>195900</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>197000</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7121,8 +7139,11 @@
       <c r="JH14" s="11">
         <v>16600</v>
       </c>
+      <c r="JI14" s="11">
+        <v>16900</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7923,10 +7944,13 @@
         <v>179500</v>
       </c>
       <c r="JH15" s="11">
-        <v>180800</v>
+        <v>179300</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>180100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8727,10 +8751,13 @@
         <v>151100</v>
       </c>
       <c r="JH16" s="11">
-        <v>152400</v>
+        <v>152100</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>152000</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9531,10 +9558,13 @@
         <v>34300</v>
       </c>
       <c r="JH17" s="11">
-        <v>35000</v>
+        <v>35100</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>34800</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10335,10 +10365,13 @@
         <v>10800</v>
       </c>
       <c r="JH18" s="11">
-        <v>10500</v>
+        <v>10700</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11139,10 +11172,13 @@
         <v>23500</v>
       </c>
       <c r="JH19" s="11">
-        <v>24500</v>
+        <v>24400</v>
+      </c>
+      <c r="JI19" s="11">
+        <v>24200</v>
       </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11945,8 +11981,11 @@
       <c r="JH20" s="11">
         <v>5400</v>
       </c>
+      <c r="JI20" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12747,10 +12786,13 @@
         <v>18100</v>
       </c>
       <c r="JH21" s="11">
-        <v>19100</v>
+        <v>19000</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>18800</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13553,8 +13595,11 @@
       <c r="JH22" s="11">
         <v>11400</v>
       </c>
+      <c r="JI22" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14355,10 +14400,13 @@
         <v>145200</v>
       </c>
       <c r="JH23" s="11">
-        <v>145800</v>
+        <v>144200</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>145300</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15159,10 +15207,13 @@
         <v>116800</v>
       </c>
       <c r="JH24" s="11">
-        <v>117400</v>
+        <v>117000</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>117200</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -15963,10 +16014,13 @@
         <v>37800</v>
       </c>
       <c r="JH25" s="11">
+        <v>37900</v>
+      </c>
+      <c r="JI25" s="11">
         <v>37800</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16769,8 +16823,11 @@
       <c r="JH26" s="11">
         <v>6000</v>
       </c>
+      <c r="JI26" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17571,10 +17628,13 @@
         <v>22100</v>
       </c>
       <c r="JH27" s="11">
-        <v>22000</v>
+        <v>22100</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>21900</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18377,8 +18437,11 @@
       <c r="JH28" s="11">
         <v>4600</v>
       </c>
+      <c r="JI28" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19181,8 +19244,11 @@
       <c r="JH29" s="11">
         <v>1600</v>
       </c>
+      <c r="JI29" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -19985,8 +20051,11 @@
       <c r="JH30" s="11">
         <v>4400</v>
       </c>
+      <c r="JI30" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20789,8 +20858,11 @@
       <c r="JH31" s="11">
         <v>9800</v>
       </c>
+      <c r="JI31" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21593,8 +21665,11 @@
       <c r="JH32" s="11">
         <v>700</v>
       </c>
+      <c r="JI32" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22397,8 +22472,11 @@
       <c r="JH33" s="11">
         <v>4900</v>
       </c>
+      <c r="JI33" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23201,8 +23279,11 @@
       <c r="JH34" s="11">
         <v>15200</v>
       </c>
+      <c r="JI34" s="11">
+        <v>15900</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24005,8 +24086,11 @@
       <c r="JH35" s="11">
         <v>8600</v>
       </c>
+      <c r="JI35" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24809,8 +24893,11 @@
       <c r="JH36" s="11">
         <v>34600</v>
       </c>
+      <c r="JI36" s="11">
+        <v>34100</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -25613,8 +25700,11 @@
       <c r="JH37" s="11">
         <v>1100</v>
       </c>
+      <c r="JI37" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -26417,8 +26507,11 @@
       <c r="JH38" s="11">
         <v>33500</v>
       </c>
+      <c r="JI38" s="11">
+        <v>33000</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27219,10 +27312,13 @@
         <v>18400</v>
       </c>
       <c r="JH39" s="11">
-        <v>19000</v>
+        <v>18500</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28025,8 +28121,11 @@
       <c r="JH40" s="11">
         <v>5200</v>
       </c>
+      <c r="JI40" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -28827,10 +28926,13 @@
         <v>28400</v>
       </c>
       <c r="JH41" s="11">
-        <v>28400</v>
+        <v>27200</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>28100</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29633,8 +29735,11 @@
       <c r="JH42" s="11">
         <v>700</v>
       </c>
+      <c r="JI42" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30435,10 +30540,13 @@
         <v>27600</v>
       </c>
       <c r="JH43" s="11">
-        <v>27700</v>
+        <v>26500</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>27400</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31241,8 +31349,11 @@
       <c r="JH44" s="11">
         <v>1800</v>
       </c>
+      <c r="JI44" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32045,8 +32156,11 @@
       <c r="JH45" s="11">
         <v>1500</v>
       </c>
+      <c r="JI45" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -32849,8 +32963,11 @@
       <c r="JH46" s="11">
         <v>300</v>
       </c>
+      <c r="JI46" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33651,10 +33768,13 @@
         <v>25800</v>
       </c>
       <c r="JH47" s="11">
-        <v>25900</v>
+        <v>24700</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>25400</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -34455,10 +34575,13 @@
         <v>16700</v>
       </c>
       <c r="JH48" s="11">
-        <v>16800</v>
+        <v>15600</v>
+      </c>
+      <c r="JI48" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -35261,8 +35384,11 @@
       <c r="JH49" s="11">
         <v>9100</v>
       </c>
+      <c r="JI49" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -36065,8 +36191,11 @@
       <c r="JH50" s="11">
         <v>4700</v>
       </c>
+      <c r="JI50" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -36869,8 +36998,11 @@
       <c r="JH51" s="11">
         <v>2500</v>
       </c>
+      <c r="JI51" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -37673,8 +37805,11 @@
       <c r="JH52" s="11">
         <v>1900</v>
       </c>
+      <c r="JI52" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
@@ -37687,7 +37822,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37700,7 +37835,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>128</v>
       </c>
@@ -37713,7 +37848,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>129</v>
       </c>
@@ -37726,7 +37861,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>130</v>
       </c>
@@ -37739,7 +37874,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>131</v>
       </c>
@@ -37752,7 +37887,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>132</v>
       </c>
@@ -37765,7 +37900,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>133</v>
       </c>

--- a/lowe/edd/data/MODE$HWS.xlsx
+++ b/lowe/edd/data/MODE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI61"/>
+  <dimension ref="A1:JJ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,12 +1441,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1474,12 +1474,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2297,11 +2297,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3105,10 +3108,13 @@
         <v>244800</v>
       </c>
       <c r="JI9" s="11">
-        <v>244900</v>
+        <v>244500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>241500</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3912,10 +3918,13 @@
         <v>225200</v>
       </c>
       <c r="JI10" s="11">
-        <v>227900</v>
+        <v>227500</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>224900</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4721,8 +4730,11 @@
       <c r="JI11" s="11">
         <v>17000</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>16600</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5528,8 +5540,11 @@
       <c r="JI12" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6333,10 +6348,13 @@
         <v>195900</v>
       </c>
       <c r="JI13" s="11">
-        <v>197000</v>
+        <v>196600</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>195000</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7142,8 +7160,11 @@
       <c r="JI14" s="11">
         <v>16900</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>16500</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7947,10 +7968,13 @@
         <v>179300</v>
       </c>
       <c r="JI15" s="11">
-        <v>180100</v>
+        <v>179700</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>178500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8754,10 +8778,13 @@
         <v>152100</v>
       </c>
       <c r="JI16" s="11">
-        <v>152000</v>
+        <v>151300</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>149500</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9561,10 +9588,13 @@
         <v>35100</v>
       </c>
       <c r="JI17" s="11">
-        <v>34800</v>
+        <v>34600</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10370,8 +10400,11 @@
       <c r="JI18" s="11">
         <v>10600</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11175,10 +11208,13 @@
         <v>24400</v>
       </c>
       <c r="JI19" s="11">
-        <v>24200</v>
+        <v>24000</v>
+      </c>
+      <c r="JJ19" s="11">
+        <v>21400</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11984,8 +12020,11 @@
       <c r="JI20" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12789,10 +12828,13 @@
         <v>19000</v>
       </c>
       <c r="JI21" s="11">
-        <v>18800</v>
+        <v>18600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>16100</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13598,8 +13640,11 @@
       <c r="JI22" s="11">
         <v>11300</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14403,10 +14448,13 @@
         <v>144200</v>
       </c>
       <c r="JI23" s="11">
-        <v>145300</v>
+        <v>145100</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>145500</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15210,10 +15258,13 @@
         <v>117000</v>
       </c>
       <c r="JI24" s="11">
-        <v>117200</v>
+        <v>116700</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>116500</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16019,8 +16070,11 @@
       <c r="JI25" s="11">
         <v>37800</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>38200</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16826,8 +16880,11 @@
       <c r="JI26" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17633,8 +17690,11 @@
       <c r="JI27" s="11">
         <v>21900</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>22200</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18440,8 +18500,11 @@
       <c r="JI28" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19247,8 +19310,11 @@
       <c r="JI29" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -20054,8 +20120,11 @@
       <c r="JI30" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20861,8 +20930,11 @@
       <c r="JI31" s="11">
         <v>9900</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21668,8 +21740,11 @@
       <c r="JI32" s="11">
         <v>700</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22473,10 +22548,13 @@
         <v>4900</v>
       </c>
       <c r="JI33" s="11">
-        <v>5000</v>
+        <v>4900</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>4900</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23280,10 +23358,13 @@
         <v>15200</v>
       </c>
       <c r="JI34" s="11">
-        <v>15900</v>
+        <v>15400</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>15200</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24087,10 +24168,13 @@
         <v>8600</v>
       </c>
       <c r="JI35" s="11">
-        <v>9000</v>
+        <v>8700</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>8700</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24894,10 +24978,13 @@
         <v>34600</v>
       </c>
       <c r="JI36" s="11">
-        <v>34100</v>
+        <v>34200</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>33800</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -25703,8 +25790,11 @@
       <c r="JI37" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -26508,10 +26598,13 @@
         <v>33500</v>
       </c>
       <c r="JI38" s="11">
-        <v>33000</v>
+        <v>33100</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>32600</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27317,8 +27410,11 @@
       <c r="JI39" s="11">
         <v>18500</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>18500</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28124,8 +28220,11 @@
       <c r="JI40" s="11">
         <v>5200</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -28929,10 +29028,13 @@
         <v>27200</v>
       </c>
       <c r="JI41" s="11">
-        <v>28100</v>
+        <v>28400</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>29000</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29738,8 +29840,11 @@
       <c r="JI42" s="11">
         <v>700</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30543,10 +30648,13 @@
         <v>26500</v>
       </c>
       <c r="JI43" s="11">
-        <v>27400</v>
+        <v>27700</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>28300</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31352,8 +31460,11 @@
       <c r="JI44" s="11">
         <v>2000</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32159,8 +32270,11 @@
       <c r="JI45" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -32966,8 +33080,11 @@
       <c r="JI46" s="11">
         <v>300</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33771,10 +33888,13 @@
         <v>24700</v>
       </c>
       <c r="JI47" s="11">
-        <v>25400</v>
+        <v>25700</v>
+      </c>
+      <c r="JJ47" s="11">
+        <v>26200</v>
       </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -34578,10 +34698,13 @@
         <v>15600</v>
       </c>
       <c r="JI48" s="11">
-        <v>16300</v>
+        <v>16600</v>
+      </c>
+      <c r="JJ48" s="11">
+        <v>17100</v>
       </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -35387,8 +35510,11 @@
       <c r="JI49" s="11">
         <v>9100</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -36194,8 +36320,11 @@
       <c r="JI50" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -37001,8 +37130,11 @@
       <c r="JI51" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -37808,8 +37940,11 @@
       <c r="JI52" s="11">
         <v>1900</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
@@ -37822,7 +37957,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37835,7 +37970,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>128</v>
       </c>
@@ -37848,7 +37983,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>129</v>
       </c>
@@ -37861,7 +37996,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>130</v>
       </c>
@@ -37874,7 +38009,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>131</v>
       </c>
@@ -37887,7 +38022,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>132</v>
       </c>
@@ -37900,7 +38035,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>133</v>
       </c>

--- a/lowe/edd/data/MODE$HWS.xlsx
+++ b/lowe/edd/data/MODE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ61"/>
+  <dimension ref="A1:JL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,12 +1441,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1474,12 +1474,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2300,11 +2300,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3111,10 +3117,16 @@
         <v>244500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>241500</v>
+        <v>241400</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>242300</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>239800</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3921,10 +3933,16 @@
         <v>227500</v>
       </c>
       <c r="JJ10" s="11">
-        <v>224900</v>
+        <v>224700</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>227400</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>225200</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4733,8 +4751,14 @@
       <c r="JJ11" s="11">
         <v>16600</v>
       </c>
+      <c r="JK11" s="11">
+        <v>14900</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>14600</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5543,8 +5567,14 @@
       <c r="JJ12" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6351,10 +6381,16 @@
         <v>196600</v>
       </c>
       <c r="JJ13" s="11">
-        <v>195000</v>
+        <v>194700</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>195600</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>192900</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7163,8 +7199,14 @@
       <c r="JJ14" s="11">
         <v>16500</v>
       </c>
+      <c r="JK14" s="11">
+        <v>15400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7971,10 +8013,16 @@
         <v>179700</v>
       </c>
       <c r="JJ15" s="11">
-        <v>178500</v>
+        <v>178200</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>180200</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>179400</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8781,10 +8829,16 @@
         <v>151300</v>
       </c>
       <c r="JJ16" s="11">
-        <v>149500</v>
+        <v>149400</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>150700</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>150500</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9591,10 +9645,16 @@
         <v>34600</v>
       </c>
       <c r="JJ17" s="11">
-        <v>33000</v>
+        <v>32900</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>32400</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>31700</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10401,10 +10461,16 @@
         <v>10600</v>
       </c>
       <c r="JJ18" s="11">
-        <v>11600</v>
+        <v>11500</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>11400</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>11000</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11213,8 +11279,14 @@
       <c r="JJ19" s="11">
         <v>21400</v>
       </c>
+      <c r="JK19" s="11">
+        <v>21000</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>20700</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12023,8 +12095,14 @@
       <c r="JJ20" s="11">
         <v>5300</v>
       </c>
+      <c r="JK20" s="11">
+        <v>5200</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12833,8 +12911,14 @@
       <c r="JJ21" s="11">
         <v>16100</v>
       </c>
+      <c r="JK21" s="11">
+        <v>15800</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13641,10 +13725,16 @@
         <v>11300</v>
       </c>
       <c r="JJ22" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JK22" s="11">
         <v>8700</v>
       </c>
+      <c r="JL22" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14451,10 +14541,16 @@
         <v>145100</v>
       </c>
       <c r="JJ23" s="11">
-        <v>145500</v>
+        <v>145300</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>147800</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>147700</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15263,8 +15359,14 @@
       <c r="JJ24" s="11">
         <v>116500</v>
       </c>
+      <c r="JK24" s="11">
+        <v>118300</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>118800</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16073,8 +16175,14 @@
       <c r="JJ25" s="11">
         <v>38200</v>
       </c>
+      <c r="JK25" s="11">
+        <v>39200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>39300</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16883,8 +16991,14 @@
       <c r="JJ26" s="11">
         <v>6000</v>
       </c>
+      <c r="JK26" s="11">
+        <v>5900</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17693,8 +17807,14 @@
       <c r="JJ27" s="11">
         <v>22200</v>
       </c>
+      <c r="JK27" s="11">
+        <v>23100</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>23200</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18503,8 +18623,14 @@
       <c r="JJ28" s="11">
         <v>4500</v>
       </c>
+      <c r="JK28" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19313,8 +19439,14 @@
       <c r="JJ29" s="11">
         <v>1600</v>
       </c>
+      <c r="JK29" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -20123,8 +20255,14 @@
       <c r="JJ30" s="11">
         <v>4700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>5100</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20933,8 +21071,14 @@
       <c r="JJ31" s="11">
         <v>10000</v>
       </c>
+      <c r="JK31" s="11">
+        <v>10200</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21743,8 +21887,14 @@
       <c r="JJ32" s="11">
         <v>700</v>
       </c>
+      <c r="JK32" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22553,8 +22703,14 @@
       <c r="JJ33" s="11">
         <v>4900</v>
       </c>
+      <c r="JK33" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23361,10 +23517,16 @@
         <v>15400</v>
       </c>
       <c r="JJ34" s="11">
-        <v>15200</v>
+        <v>15300</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>15500</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>15800</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24171,10 +24333,16 @@
         <v>8700</v>
       </c>
       <c r="JJ35" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JK35" s="11">
         <v>8700</v>
       </c>
+      <c r="JL35" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24983,8 +25151,14 @@
       <c r="JJ36" s="11">
         <v>33800</v>
       </c>
+      <c r="JK36" s="11">
+        <v>34100</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>34700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -25793,8 +25967,14 @@
       <c r="JJ37" s="11">
         <v>1200</v>
       </c>
+      <c r="JK37" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -26603,8 +26783,14 @@
       <c r="JJ38" s="11">
         <v>32600</v>
       </c>
+      <c r="JK38" s="11">
+        <v>32900</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>33500</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27411,10 +27597,16 @@
         <v>18500</v>
       </c>
       <c r="JJ39" s="11">
-        <v>18500</v>
+        <v>18400</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>18700</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>18200</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28223,8 +28415,14 @@
       <c r="JJ40" s="11">
         <v>5200</v>
       </c>
+      <c r="JK40" s="11">
+        <v>5200</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -29031,10 +29229,16 @@
         <v>28400</v>
       </c>
       <c r="JJ41" s="11">
-        <v>29000</v>
+        <v>28800</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>29500</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>28900</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -29843,8 +30047,14 @@
       <c r="JJ42" s="11">
         <v>700</v>
       </c>
+      <c r="JK42" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -30651,10 +30861,16 @@
         <v>27700</v>
       </c>
       <c r="JJ43" s="11">
-        <v>28300</v>
+        <v>28100</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>28800</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>28100</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -31463,8 +31679,14 @@
       <c r="JJ44" s="11">
         <v>2100</v>
       </c>
+      <c r="JK44" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32273,8 +32495,14 @@
       <c r="JJ45" s="11">
         <v>1800</v>
       </c>
+      <c r="JK45" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33083,8 +33311,14 @@
       <c r="JJ46" s="11">
         <v>300</v>
       </c>
+      <c r="JK46" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -33891,10 +34125,16 @@
         <v>25700</v>
       </c>
       <c r="JJ47" s="11">
-        <v>26200</v>
+        <v>26000</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>26700</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>25900</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -34701,10 +34941,16 @@
         <v>16600</v>
       </c>
       <c r="JJ48" s="11">
-        <v>17100</v>
+        <v>16900</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>17600</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>16800</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -35513,8 +35759,14 @@
       <c r="JJ49" s="11">
         <v>9100</v>
       </c>
+      <c r="JK49" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -36323,8 +36575,14 @@
       <c r="JJ50" s="11">
         <v>4800</v>
       </c>
+      <c r="JK50" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -37133,8 +37391,14 @@
       <c r="JJ51" s="11">
         <v>2500</v>
       </c>
+      <c r="JK51" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -37943,8 +38207,14 @@
       <c r="JJ52" s="11">
         <v>1800</v>
       </c>
+      <c r="JK52" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
@@ -37957,7 +38227,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37970,7 +38240,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>128</v>
       </c>
@@ -37983,7 +38253,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>129</v>
       </c>
@@ -37996,7 +38266,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>130</v>
       </c>
@@ -38009,7 +38279,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>131</v>
       </c>
@@ -38022,7 +38292,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>132</v>
       </c>
@@ -38035,7 +38305,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>133</v>
       </c>
